--- a/database_excel_files/CCMIdToPoints.xlsx
+++ b/database_excel_files/CCMIdToPoints.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -373,14 +373,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database_excel_files/CCMIdToPoints.xlsx
+++ b/database_excel_files/CCMIdToPoints.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-main/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E35D81E-04E8-4BA8-988F-3A3ED755FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1E35D81E-04E8-4BA8-988F-3A3ED755FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C9A7FE6-1ECE-4D4F-941D-35DE3F13E6A7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="4530" windowWidth="20430" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,14 +33,13 @@
     <t>points</t>
   </si>
   <si>
-    <t>B789012</t>
+    <t>C123413</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,25 +351,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="64.5703125"/>
-    <col min="2" max="2" customWidth="true" width="21.85546875"/>
-    <col min="3" max="3" customWidth="true" width="51.42578125"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/CCMIdToPoints.xlsx
+++ b/database_excel_files/CCMIdToPoints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-main/database_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angyu\Desktop\Uni stuff\Y2 SEM1\SC2002 - Obj Oriented Des &amp; Prog\Group project\SC2002_Lab_Project-main (9)\SC2002_Lab_Project-main\database_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1E35D81E-04E8-4BA8-988F-3A3ED755FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C9A7FE6-1ECE-4D4F-941D-35DE3F13E6A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB9232C-3549-4B1C-8A21-B4CE161B5E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="4530" windowWidth="20430" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>points</t>
-  </si>
-  <si>
-    <t>C123413</t>
   </si>
 </sst>
 </file>
@@ -351,20 +348,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,14 +369,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
